--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yucheng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yucheng\Desktop\Contributor1\transrepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB907CA3-6CC7-4016-AF4E-226DF95A62B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA474A9-6D17-40CD-A710-8248A52AFCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="255" yWindow="4410" windowWidth="38145" windowHeight="11775" xr2:uid="{6C666B94-BBE4-426E-916D-BBD9ACBE1BBB}"/>
   </bookViews>
@@ -395,12 +395,19 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yucheng\Desktop\Contributor1\transrepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA474A9-6D17-40CD-A710-8248A52AFCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A689FBFD-4C43-43F5-8C9A-0C71110F1795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="255" yWindow="4410" windowWidth="38145" windowHeight="11775" xr2:uid="{6C666B94-BBE4-426E-916D-BBD9ACBE1BBB}"/>
   </bookViews>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2954C2F-1435-464C-95FB-A03779E004E5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -405,6 +405,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
